--- a/Excel & Visual Basic/Examples/Conditional Format Table.xlsx
+++ b/Excel & Visual Basic/Examples/Conditional Format Table.xlsx
@@ -58312,15 +58312,7 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="61f9cf43-1732-4c36-9476-c31f2f5489c9">WPDZS7TJJ3E5-719472058-71</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="61f9cf43-1732-4c36-9476-c31f2f5489c9">
-      <Url>https://cms.conestogac.on.ca/sites/academic-administration/IR/_layouts/15/DocIdRedir.aspx?ID=WPDZS7TJJ3E5-719472058-71</Url>
-      <Description>WPDZS7TJJ3E5-719472058-71</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
@@ -58487,53 +58479,188 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028CAD5B0D39EEF4180FAF78645AB3BF3" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f49186227370304721ff655cee31aed">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e58ca87-4072-470e-8b31-171c5a2c0324" xmlns:ns3="a194edfb-0d26-4a04-9fce-796958ba02c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0965fcafb6e25e5ad89b6cd3a1350ad6" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e58ca87-4072-470e-8b31-171c5a2c0324"/>
+    <xsd:import namespace="a194edfb-0d26-4a04-9fce-796958ba02c9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e58ca87-4072-470e-8b31-171c5a2c0324" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="12" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a194edfb-0d26-4a04-9fce-796958ba02c9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58581,9 +58708,5 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96D1A0E-C08D-485B-BD5A-469F2EE73BA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF02FEE-79CD-432D-88A7-948C2E61050B}"/>
 </file>
--- a/Excel & Visual Basic/Examples/Conditional Format Table.xlsx
+++ b/Excel & Visual Basic/Examples/Conditional Format Table.xlsx
@@ -58479,8 +58479,8 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028CAD5B0D39EEF4180FAF78645AB3BF3" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f49186227370304721ff655cee31aed">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e58ca87-4072-470e-8b31-171c5a2c0324" xmlns:ns3="a194edfb-0d26-4a04-9fce-796958ba02c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0965fcafb6e25e5ad89b6cd3a1350ad6" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028CAD5B0D39EEF4180FAF78645AB3BF3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe62ec5d3e4532085a00c0a90c3a20f3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e58ca87-4072-470e-8b31-171c5a2c0324" xmlns:ns3="a194edfb-0d26-4a04-9fce-796958ba02c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7878ea80cfe52bb681564f4bdb01e156" ns2:_="" ns3:_="">
     <xsd:import namespace="0e58ca87-4072-470e-8b31-171c5a2c0324"/>
     <xsd:import namespace="a194edfb-0d26-4a04-9fce-796958ba02c9"/>
     <xsd:element name="properties">
@@ -58496,6 +58496,10 @@
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -58531,6 +58535,28 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -58708,5 +58734,5 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF02FEE-79CD-432D-88A7-948C2E61050B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE88F882-CABC-4EF5-BC06-6DB5E052D4B6}"/>
 </file>
--- a/Excel & Visual Basic/Examples/Conditional Format Table.xlsx
+++ b/Excel & Visual Basic/Examples/Conditional Format Table.xlsx
@@ -58479,8 +58479,8 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028CAD5B0D39EEF4180FAF78645AB3BF3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe62ec5d3e4532085a00c0a90c3a20f3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e58ca87-4072-470e-8b31-171c5a2c0324" xmlns:ns3="a194edfb-0d26-4a04-9fce-796958ba02c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7878ea80cfe52bb681564f4bdb01e156" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028CAD5B0D39EEF4180FAF78645AB3BF3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3a6c467205e19d56000908c82bd1ca2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e58ca87-4072-470e-8b31-171c5a2c0324" xmlns:ns3="a194edfb-0d26-4a04-9fce-796958ba02c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d2e7e77716153d8d1a8783d648d6943" ns2:_="" ns3:_="">
     <xsd:import namespace="0e58ca87-4072-470e-8b31-171c5a2c0324"/>
     <xsd:import namespace="a194edfb-0d26-4a04-9fce-796958ba02c9"/>
     <xsd:element name="properties">
@@ -58500,6 +58500,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -58557,6 +58558,11 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -58734,5 +58740,5 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE88F882-CABC-4EF5-BC06-6DB5E052D4B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0D1F2F-C768-425C-8CC0-C99A9006986A}"/>
 </file>